--- a/SE/N2chart.xlsx
+++ b/SE/N2chart.xlsx
@@ -1699,7 +1699,7 @@
       <c r="AB28" s="21"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" gridLines="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/SE/N2chart.xlsx
+++ b/SE/N2chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="11295" windowHeight="6750"/>
@@ -26,7 +26,7 @@
     <sheet name="Sheet15" sheetId="17" r:id="rId17"/>
     <sheet name="Sheet16" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -156,10 +156,10 @@
     <t>Data package</t>
   </si>
   <si>
-    <t>Time pulse send</t>
-  </si>
-  <si>
     <t>-Time                                     - Location</t>
+  </si>
+  <si>
+    <t>Time pulse is sent</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -247,9 +247,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -257,17 +289,69 @@
     </border>
     <border>
       <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
         <color indexed="64"/>
       </left>
       <right/>
@@ -277,7 +361,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="dashDot">
         <color indexed="64"/>
       </right>
       <top/>
@@ -285,12 +369,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="dashDot">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -299,7 +413,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="dashDot">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -314,7 +428,7 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
+      <bottom style="dashDot">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -323,93 +437,44 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="dashed">
+      <right style="dashDot">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
+      <bottom style="dashDot">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="dashed">
         <color indexed="64"/>
       </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -435,55 +500,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -495,19 +516,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -515,41 +572,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,16 +713,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>291581</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>116632</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82031</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>651200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>470225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -646,8 +731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2167423" y="408214"/>
-          <a:ext cx="1798088" cy="359618"/>
+          <a:off x="82031" y="4107607"/>
+          <a:ext cx="1797894" cy="359618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,11 +741,7 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -682,8 +763,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1600"/>
-            <a:t>Emitter satellite</a:t>
+            <a:rPr lang="nl-NL" sz="1000">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>EMITTER SATELLITE</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -692,26 +776,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>563725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>213828</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5831</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>252704</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>233265</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Tekstvak 2"/>
+        <xdr:cNvPr id="4" name="Tekstvak 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8358674" y="6910486"/>
-          <a:ext cx="1710612" cy="311019"/>
+          <a:off x="6720956" y="7727107"/>
+          <a:ext cx="1797894" cy="359618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -719,12 +803,8 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -746,8 +826,74 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1600"/>
-            <a:t>Receiver satellite</a:t>
+            <a:rPr lang="nl-NL" sz="1000">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>RECEIVER SATELLITE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>273894</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92918</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Tekstvak 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972925" y="8753475"/>
+          <a:ext cx="1797894" cy="359618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1000">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>GROUND SEGMENT</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -758,9 +904,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -798,7 +944,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -868,7 +1014,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1042,90 +1188,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="B2:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="12" style="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" thickBot="1">
-      <c r="G1" s="29" t="s">
+    <row r="2" spans="2:20" ht="22.5">
+      <c r="H2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P2" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45.75" thickBot="1">
-      <c r="A2" s="32" t="s">
+    <row r="3" spans="2:20" ht="45.75" thickBot="1">
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="22" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="34.5" thickBot="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1133,27 +1252,25 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="34.5" thickBot="1">
-      <c r="A4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.5" thickBot="1">
+      <c r="B4" s="22"/>
+      <c r="C4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1162,27 +1279,27 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="34.5" thickBot="1">
-      <c r="A5" s="23" t="s">
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="2:20" ht="34.5" thickBot="1">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="3"/>
+      <c r="D5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1191,29 +1308,27 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" ht="34.5" thickBot="1">
-      <c r="A6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="2:20" ht="34.5" thickBot="1">
+      <c r="B6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1222,27 +1337,29 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" ht="45.75" thickBot="1">
-      <c r="A7" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" ht="34.5" thickBot="1">
+      <c r="B7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1251,39 +1368,27 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" ht="23.25" thickBot="1">
-      <c r="A8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="2:20" ht="45.75" thickBot="1">
+      <c r="B8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1292,23 +1397,39 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="23.25" thickBot="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="2:20" ht="23.25" thickBot="1">
+      <c r="B9" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>2</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1317,386 +1438,412 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" ht="23.25" thickBot="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="2:20" ht="23.25" thickBot="1">
+      <c r="B10" s="22"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="2:20" ht="22.5">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="T11" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="57" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="32" t="s">
+    <row r="12" spans="2:20" ht="57" thickBot="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="26" t="s">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="R12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="34.5" thickBot="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="23" t="s">
+      <c r="S12" s="21"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="2:20" ht="34.5" thickBot="1">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="M13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="22" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" ht="34.5" thickBot="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="23" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="2:20" ht="34.5" thickBot="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="32" t="s">
+      <c r="M14" s="8"/>
+      <c r="N14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="22" t="s">
+      <c r="O14" s="7"/>
+      <c r="P14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" ht="34.5" thickBot="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="22" t="s">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="2:20" ht="34.5" thickBot="1">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="N15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="O15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" ht="23.25" thickBot="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="23" t="s">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="2:20" ht="23.25" thickBot="1">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="M16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="N16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="O16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="P16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="Q16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="R16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="24" t="s">
+      <c r="S16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" ht="34.5" thickBot="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="23" t="s">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="2:29" ht="34.5" thickBot="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="32" t="s">
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="R17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="S17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="32" t="s">
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="2:29" ht="23.25" thickBot="1">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="24" t="s">
+      <c r="S18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="1:28" ht="45.75" thickBot="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="22" t="s">
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="2:29" ht="45">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="25" t="s">
+      <c r="L19" s="29"/>
+      <c r="M19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="32" t="s">
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="T19" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="22" t="s">
+    <row r="20" spans="2:29" ht="23.25" thickBot="1">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="27" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="S19" s="32" t="s">
+      <c r="T20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="T19" s="26" t="s">
+      <c r="U20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="17"/>
-    </row>
-    <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="S20" s="23" t="s">
+      <c r="V20" s="38"/>
+    </row>
+    <row r="21" spans="2:29" ht="23.25" thickBot="1">
+      <c r="T21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T20" s="32" t="s">
+      <c r="U21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="V21" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="34.5" thickBot="1">
-      <c r="S21" s="18"/>
-      <c r="T21" s="25" t="s">
+    <row r="22" spans="2:29" ht="33.75">
+      <c r="T22" s="39"/>
+      <c r="U22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" s="22" t="s">
+      <c r="V22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="V22" s="20"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="V23" s="21"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="21"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="W23" s="9"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="W24" s="10"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="10"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1892,828 +2039,828 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45.75" thickBot="1">
       <c r="A1" s="2" t="str">
-        <f>'N2-base'!A2</f>
+        <f>'N2-base'!B3</f>
         <v>Laser</v>
       </c>
-      <c r="B1" s="21">
-        <f>'N2-base'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="21">
-        <f>'N2-base'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="D1" s="21">
-        <f>'N2-base'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="E1" s="21">
-        <f>'N2-base'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="21" t="str">
-        <f>'N2-base'!H2</f>
-        <v>Time pulse send</v>
-      </c>
-      <c r="G1" s="21">
-        <f>'N2-base'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="21" t="str">
-        <f>'N2-base'!K2</f>
+      <c r="B1" s="10">
+        <f>'N2-base'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <f>'N2-base'!E3</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="10">
+        <f>'N2-base'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="10">
+        <f>'N2-base'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="str">
+        <f>'N2-base'!I3</f>
+        <v>Time pulse is sent</v>
+      </c>
+      <c r="G1" s="10">
+        <f>'N2-base'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="10" t="str">
+        <f>'N2-base'!L3</f>
         <v>Reflected Laser pulses (via Earth)</v>
       </c>
-      <c r="I1" s="21">
-        <f>'N2-base'!L2</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="21">
-        <f>'N2-base'!M2</f>
-        <v>0</v>
-      </c>
-      <c r="K1" s="21">
-        <f>'N2-base'!N2</f>
-        <v>0</v>
-      </c>
-      <c r="L1" s="21">
-        <f>'N2-base'!O2</f>
-        <v>0</v>
-      </c>
-      <c r="M1" s="21">
-        <f>'N2-base'!Q2</f>
-        <v>0</v>
-      </c>
-      <c r="N1" s="21"/>
+      <c r="I1" s="10">
+        <f>'N2-base'!M3</f>
+        <v>0</v>
+      </c>
+      <c r="J1" s="10">
+        <f>'N2-base'!N3</f>
+        <v>0</v>
+      </c>
+      <c r="K1" s="10">
+        <f>'N2-base'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="L1" s="10">
+        <f>'N2-base'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="10">
+        <f>'N2-base'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="21" t="str">
-        <f>'N2-base'!A4</f>
+      <c r="A2" s="10" t="str">
+        <f>'N2-base'!B5</f>
         <v>Nadir Pointing</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>'N2-base'!C4</f>
+        <f>'N2-base'!D5</f>
         <v>Pointing Mechanism</v>
       </c>
-      <c r="C2" s="21">
-        <f>'N2-base'!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="21" t="str">
-        <f>'N2-base'!E4</f>
+      <c r="C2" s="10">
+        <f>'N2-base'!E5</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>'N2-base'!F5</f>
         <v>Pointing angle</v>
       </c>
-      <c r="E2" s="21">
-        <f>'N2-base'!G4</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <f>'N2-base'!H4</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="21">
-        <f>'N2-base'!I4</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="21">
-        <f>'N2-base'!K4</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="21">
-        <f>'N2-base'!L4</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="21">
-        <f>'N2-base'!M4</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="21">
-        <f>'N2-base'!N4</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="21">
-        <f>'N2-base'!O4</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="21">
-        <f>'N2-base'!Q4</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="21"/>
+      <c r="E2" s="10">
+        <f>'N2-base'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <f>'N2-base'!I5</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <f>'N2-base'!J5</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <f>'N2-base'!L5</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <f>'N2-base'!M5</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <f>'N2-base'!N5</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <f>'N2-base'!O5</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <f>'N2-base'!P5</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <f>'N2-base'!R5</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
-      <c r="A3" s="21" t="str">
-        <f>'N2-base'!A5</f>
+      <c r="A3" s="10" t="str">
+        <f>'N2-base'!B6</f>
         <v>Nadir Pointing</v>
       </c>
-      <c r="B3" s="21">
-        <f>'N2-base'!C5</f>
+      <c r="B3" s="10">
+        <f>'N2-base'!D6</f>
         <v>0</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>'N2-base'!D5</f>
+        <f>'N2-base'!E6</f>
         <v>Attitude Control</v>
       </c>
-      <c r="D3" s="21">
-        <f>'N2-base'!E5</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="21" t="str">
-        <f>'N2-base'!G5</f>
+      <c r="D3" s="10">
+        <f>'N2-base'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f>'N2-base'!H6</f>
         <v>Sun pointing</v>
       </c>
-      <c r="F3" s="21">
-        <f>'N2-base'!H5</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <f>'N2-base'!I5</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <f>'N2-base'!K5</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="21">
-        <f>'N2-base'!L5</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <f>'N2-base'!M5</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="21">
-        <f>'N2-base'!N5</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="21">
-        <f>'N2-base'!O5</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="21">
-        <f>'N2-base'!Q5</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="21"/>
+      <c r="F3" s="10">
+        <f>'N2-base'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <f>'N2-base'!J6</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <f>'N2-base'!L6</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f>'N2-base'!M6</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <f>'N2-base'!N6</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <f>'N2-base'!O6</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <f>'N2-base'!P6</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <f>'N2-base'!R6</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1">
-      <c r="A4" s="21" t="str">
-        <f>'N2-base'!A6</f>
+      <c r="A4" s="10" t="str">
+        <f>'N2-base'!B7</f>
         <v>Give go if nadir pointing</v>
       </c>
-      <c r="B4" s="21" t="str">
-        <f>'N2-base'!C6</f>
+      <c r="B4" s="10" t="str">
+        <f>'N2-base'!D7</f>
         <v>Pointing error</v>
       </c>
-      <c r="C4" s="21" t="str">
-        <f>'N2-base'!D6</f>
+      <c r="C4" s="10" t="str">
+        <f>'N2-base'!E7</f>
         <v>Attitude error</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>'N2-base'!E6</f>
+        <f>'N2-base'!F7</f>
         <v>Attitude Determination</v>
       </c>
-      <c r="E4" s="21">
-        <f>'N2-base'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <f>'N2-base'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <f>'N2-base'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <f>'N2-base'!K6</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <f>'N2-base'!L6</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
-        <f>'N2-base'!M6</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <f>'N2-base'!N6</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
-        <f>'N2-base'!O6</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
-        <f>'N2-base'!Q6</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="21"/>
+      <c r="E4" s="10">
+        <f>'N2-base'!H7</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <f>'N2-base'!I7</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f>'N2-base'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <f>'N2-base'!L7</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <f>'N2-base'!M7</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <f>'N2-base'!N7</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <f>'N2-base'!O7</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <f>'N2-base'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <f>'N2-base'!R7</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" thickBot="1">
-      <c r="A5" s="21" t="str">
-        <f>'N2-base'!A8</f>
+      <c r="A5" s="10" t="str">
+        <f>'N2-base'!B9</f>
         <v>Provide power</v>
       </c>
-      <c r="B5" s="21" t="str">
-        <f>'N2-base'!C8</f>
+      <c r="B5" s="10" t="str">
+        <f>'N2-base'!D9</f>
         <v>Provide power</v>
       </c>
-      <c r="C5" s="21" t="str">
-        <f>'N2-base'!D8</f>
+      <c r="C5" s="10" t="str">
+        <f>'N2-base'!E9</f>
         <v>Provide power</v>
       </c>
-      <c r="D5" s="21" t="str">
-        <f>'N2-base'!E8</f>
+      <c r="D5" s="10" t="str">
+        <f>'N2-base'!F9</f>
         <v>Provide power</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>'N2-base'!G8</f>
+        <f>'N2-base'!H9</f>
         <v>EPS</v>
       </c>
-      <c r="F5" s="21" t="str">
-        <f>'N2-base'!H8</f>
+      <c r="F5" s="10" t="str">
+        <f>'N2-base'!I9</f>
         <v>Provide power</v>
       </c>
-      <c r="G5" s="21" t="str">
-        <f>'N2-base'!I8</f>
+      <c r="G5" s="10" t="str">
+        <f>'N2-base'!J9</f>
         <v>Provide power</v>
       </c>
-      <c r="H5" s="21">
-        <f>'N2-base'!K8</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <f>'N2-base'!L8</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <f>'N2-base'!M8</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <f>'N2-base'!N8</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <f>'N2-base'!O8</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <f>'N2-base'!Q8</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="21"/>
+      <c r="H5" s="10">
+        <f>'N2-base'!L9</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f>'N2-base'!M9</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <f>'N2-base'!N9</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <f>'N2-base'!O9</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <f>'N2-base'!P9</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <f>'N2-base'!R9</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1" thickBot="1">
-      <c r="A6" s="21">
-        <f>'N2-base'!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="21">
-        <f>'N2-base'!C9</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <f>'N2-base'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <f>'N2-base'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <f>'N2-base'!G9</f>
+      <c r="A6" s="10">
+        <f>'N2-base'!B10</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <f>'N2-base'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <f>'N2-base'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <f>'N2-base'!F10</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <f>'N2-base'!H10</f>
         <v>0</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>'N2-base'!H9</f>
+        <f>'N2-base'!I10</f>
         <v>Data Storage</v>
       </c>
-      <c r="G6" s="21">
-        <f>'N2-base'!I9</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <f>'N2-base'!K9</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <f>'N2-base'!L9</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <f>'N2-base'!M9</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <f>'N2-base'!N9</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <f>'N2-base'!O9</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <f>'N2-base'!Q9</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="21"/>
+      <c r="G6" s="10">
+        <f>'N2-base'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f>'N2-base'!L10</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <f>'N2-base'!M10</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <f>'N2-base'!N10</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f>'N2-base'!O10</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <f>'N2-base'!P10</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <f>'N2-base'!R10</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1">
-      <c r="A7" s="21">
-        <f>'N2-base'!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="21">
-        <f>'N2-base'!C10</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="21">
-        <f>'N2-base'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <f>'N2-base'!E10</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
-        <f>'N2-base'!G10</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="21" t="str">
-        <f>'N2-base'!H10</f>
+      <c r="A7" s="10">
+        <f>'N2-base'!B11</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <f>'N2-base'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <f>'N2-base'!E11</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <f>'N2-base'!F11</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <f>'N2-base'!H11</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f>'N2-base'!I11</f>
         <v>Receiver data*</v>
       </c>
-      <c r="G7" s="21">
-        <f>'N2-base'!I10</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
-        <f>'N2-base'!K10</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <f>'N2-base'!L10</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <f>'N2-base'!M10</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <f>'N2-base'!N10</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <f>'N2-base'!O10</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <f>'N2-base'!Q10</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="21"/>
+      <c r="G7" s="10">
+        <f>'N2-base'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f>'N2-base'!L11</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <f>'N2-base'!M11</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <f>'N2-base'!N11</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f>'N2-base'!O11</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <f>'N2-base'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <f>'N2-base'!R11</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="56.25">
-      <c r="A8" s="21">
-        <f>'N2-base'!A11</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="21">
-        <f>'N2-base'!C11</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="21">
-        <f>'N2-base'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
-        <f>'N2-base'!E11</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
-        <f>'N2-base'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <f>'N2-base'!H11</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <f>'N2-base'!I11</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="str">
-        <f>'N2-base'!K11</f>
+      <c r="A8" s="10">
+        <f>'N2-base'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
+        <f>'N2-base'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <f>'N2-base'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <f>'N2-base'!F12</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <f>'N2-base'!H12</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <f>'N2-base'!I12</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <f>'N2-base'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f>'N2-base'!L12</f>
         <v>Photon counter</v>
       </c>
-      <c r="I8" s="21">
-        <f>'N2-base'!L11</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
-        <f>'N2-base'!M11</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="21">
-        <f>'N2-base'!N11</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <f>'N2-base'!O11</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="21" t="str">
-        <f>'N2-base'!Q11</f>
+      <c r="I8" s="10">
+        <f>'N2-base'!M12</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <f>'N2-base'!N12</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f>'N2-base'!O12</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <f>'N2-base'!P12</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10" t="str">
+        <f>'N2-base'!R12</f>
         <v>-Photons received                                                              - Photon received times</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
-      <c r="A9" s="21">
-        <f>'N2-base'!A12</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="21">
-        <f>'N2-base'!C12</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="21">
-        <f>'N2-base'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <f>'N2-base'!E12</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
-        <f>'N2-base'!G12</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <f>'N2-base'!H12</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <f>'N2-base'!I12</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="str">
-        <f>'N2-base'!K12</f>
+      <c r="A9" s="10">
+        <f>'N2-base'!B13</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="10">
+        <f>'N2-base'!D13</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <f>'N2-base'!E13</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <f>'N2-base'!F13</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <f>'N2-base'!H13</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <f>'N2-base'!I13</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <f>'N2-base'!J13</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f>'N2-base'!L13</f>
         <v>Ground Target Pointing</v>
       </c>
-      <c r="I9" s="21" t="str">
-        <f>'N2-base'!L12</f>
+      <c r="I9" s="10" t="str">
+        <f>'N2-base'!M13</f>
         <v>Pointing Mechanism</v>
       </c>
-      <c r="J9" s="21">
-        <f>'N2-base'!M12</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="21" t="str">
-        <f>'N2-base'!N12</f>
+      <c r="J9" s="10">
+        <f>'N2-base'!N13</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f>'N2-base'!O13</f>
         <v>Pointing angle</v>
       </c>
-      <c r="L9" s="21">
-        <f>'N2-base'!O12</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
-        <f>'N2-base'!Q12</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="21"/>
+      <c r="L9" s="10">
+        <f>'N2-base'!P13</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <f>'N2-base'!R13</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="24" customHeight="1">
-      <c r="A10" s="21">
-        <f>'N2-base'!A13</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="21">
-        <f>'N2-base'!C13</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="21">
-        <f>'N2-base'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
-        <f>'N2-base'!E13</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
-        <f>'N2-base'!G13</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <f>'N2-base'!H13</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <f>'N2-base'!I13</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="21" t="str">
-        <f>'N2-base'!K13</f>
+      <c r="A10" s="10">
+        <f>'N2-base'!B14</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="10">
+        <f>'N2-base'!D14</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <f>'N2-base'!E14</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <f>'N2-base'!F14</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <f>'N2-base'!H14</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <f>'N2-base'!I14</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <f>'N2-base'!J14</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f>'N2-base'!L14</f>
         <v>Ground Target Pointing</v>
       </c>
-      <c r="I10" s="21">
-        <f>'N2-base'!L13</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="21" t="str">
-        <f>'N2-base'!M13</f>
+      <c r="I10" s="10">
+        <f>'N2-base'!M14</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f>'N2-base'!N14</f>
         <v>Attitude Control</v>
       </c>
-      <c r="K10" s="21">
-        <f>'N2-base'!N13</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="21" t="str">
-        <f>'N2-base'!O13</f>
+      <c r="K10" s="10">
+        <f>'N2-base'!O14</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="10" t="str">
+        <f>'N2-base'!P14</f>
         <v>Sun pointing</v>
       </c>
-      <c r="M10" s="21">
-        <f>'N2-base'!Q13</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="21"/>
+      <c r="M10" s="10">
+        <f>'N2-base'!R14</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1">
-      <c r="A11" s="21">
-        <f>'N2-base'!A14</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="21">
-        <f>'N2-base'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="21">
-        <f>'N2-base'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <f>'N2-base'!E14</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <f>'N2-base'!G14</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
-        <f>'N2-base'!H14</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <f>'N2-base'!I14</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
-        <f>'N2-base'!K14</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="21" t="str">
-        <f>'N2-base'!L14</f>
+      <c r="A11" s="10">
+        <f>'N2-base'!B15</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="10">
+        <f>'N2-base'!D15</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <f>'N2-base'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <f>'N2-base'!F15</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f>'N2-base'!H15</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f>'N2-base'!I15</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f>'N2-base'!J15</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f>'N2-base'!L15</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f>'N2-base'!M15</f>
         <v>Pointing error</v>
       </c>
-      <c r="J11" s="21" t="str">
-        <f>'N2-base'!M14</f>
+      <c r="J11" s="10" t="str">
+        <f>'N2-base'!N15</f>
         <v>Attitude Error</v>
       </c>
-      <c r="K11" s="21" t="str">
-        <f>'N2-base'!N14</f>
+      <c r="K11" s="10" t="str">
+        <f>'N2-base'!O15</f>
         <v>Attitude Determination</v>
       </c>
-      <c r="L11" s="21">
-        <f>'N2-base'!O14</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="21">
-        <f>'N2-base'!Q14</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="21"/>
+      <c r="L11" s="10">
+        <f>'N2-base'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <f>'N2-base'!R15</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1">
-      <c r="A12" s="21">
-        <f>'N2-base'!A15</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="21">
-        <f>'N2-base'!C15</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="21">
-        <f>'N2-base'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="21">
-        <f>'N2-base'!E15</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
-        <f>'N2-base'!G15</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <f>'N2-base'!H15</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <f>'N2-base'!I15</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="str">
-        <f>'N2-base'!K15</f>
+      <c r="A12" s="10">
+        <f>'N2-base'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="10">
+        <f>'N2-base'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <f>'N2-base'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <f>'N2-base'!F16</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f>'N2-base'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <f>'N2-base'!I16</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <f>'N2-base'!J16</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f>'N2-base'!L16</f>
         <v>Provide power</v>
       </c>
-      <c r="I12" s="21" t="str">
-        <f>'N2-base'!L15</f>
+      <c r="I12" s="10" t="str">
+        <f>'N2-base'!M16</f>
         <v>Provide power</v>
       </c>
-      <c r="J12" s="21" t="str">
-        <f>'N2-base'!M15</f>
+      <c r="J12" s="10" t="str">
+        <f>'N2-base'!N16</f>
         <v>Provide power</v>
       </c>
-      <c r="K12" s="21" t="str">
-        <f>'N2-base'!N15</f>
+      <c r="K12" s="10" t="str">
+        <f>'N2-base'!O16</f>
         <v>Provide power</v>
       </c>
-      <c r="L12" s="21" t="str">
-        <f>'N2-base'!O15</f>
+      <c r="L12" s="10" t="str">
+        <f>'N2-base'!P16</f>
         <v>EPS</v>
       </c>
-      <c r="M12" s="21" t="str">
-        <f>'N2-base'!Q15</f>
+      <c r="M12" s="10" t="str">
+        <f>'N2-base'!R16</f>
         <v>Provide power</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1">
-      <c r="A13" s="21">
-        <f>'N2-base'!A17</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="21">
-        <f>'N2-base'!C17</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="21">
-        <f>'N2-base'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <f>'N2-base'!E17</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <f>'N2-base'!G17</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <f>'N2-base'!H17</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <f>'N2-base'!I17</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <f>'N2-base'!K17</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
-        <f>'N2-base'!L17</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <f>'N2-base'!M17</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="21">
-        <f>'N2-base'!N17</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="21">
-        <f>'N2-base'!O17</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="21" t="str">
-        <f>'N2-base'!Q17</f>
+      <c r="A13" s="10">
+        <f>'N2-base'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="10">
+        <f>'N2-base'!D18</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <f>'N2-base'!E18</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <f>'N2-base'!F18</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f>'N2-base'!H18</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <f>'N2-base'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <f>'N2-base'!J18</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f>'N2-base'!L18</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <f>'N2-base'!M18</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <f>'N2-base'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <f>'N2-base'!O18</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <f>'N2-base'!P18</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10" t="str">
+        <f>'N2-base'!R18</f>
         <v>Data Storage</v>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="22.5">
-      <c r="A14" s="21">
-        <f>'N2-base'!A18</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="21">
-        <f>'N2-base'!C18</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="21">
-        <f>'N2-base'!D18</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <f>'N2-base'!E18</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <f>'N2-base'!G18</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <f>'N2-base'!H18</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <f>'N2-base'!I18</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <f>'N2-base'!K18</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="21" t="str">
-        <f>'N2-base'!L18</f>
+      <c r="A14" s="10">
+        <f>'N2-base'!B19</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
+        <f>'N2-base'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <f>'N2-base'!E19</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <f>'N2-base'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <f>'N2-base'!H19</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <f>'N2-base'!I19</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f>'N2-base'!J19</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f>'N2-base'!L19</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f>'N2-base'!M19</f>
         <v>Ground target pointing data</v>
       </c>
-      <c r="J14" s="21">
-        <f>'N2-base'!M18</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="21">
-        <f>'N2-base'!N18</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <f>'N2-base'!O18</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="21">
-        <f>'N2-base'!Q18</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="21"/>
+      <c r="J14" s="10">
+        <f>'N2-base'!N19</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f>'N2-base'!O19</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <f>'N2-base'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <f>'N2-base'!R19</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="21">
-        <f>'N2-base'!A19</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="21">
-        <f>'N2-base'!C19</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="21">
-        <f>'N2-base'!D19</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="21">
-        <f>'N2-base'!E19</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="21">
-        <f>'N2-base'!G19</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="21">
-        <f>'N2-base'!H19</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="21">
-        <f>'N2-base'!I19</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
-        <f>'N2-base'!K19</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
-        <f>'N2-base'!L19</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
-        <f>'N2-base'!M19</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="21">
-        <f>'N2-base'!N19</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="21">
-        <f>'N2-base'!O19</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="21">
-        <f>'N2-base'!Q19</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="21"/>
+      <c r="A15" s="10">
+        <f>'N2-base'!B20</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="10">
+        <f>'N2-base'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <f>'N2-base'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <f>'N2-base'!F20</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <f>'N2-base'!H20</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <f>'N2-base'!I20</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <f>'N2-base'!J20</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <f>'N2-base'!L20</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <f>'N2-base'!M20</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <f>'N2-base'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <f>'N2-base'!O20</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <f>'N2-base'!P20</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <f>'N2-base'!R20</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="10"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1" gridLinesSet="0"/>
@@ -2740,51 +2887,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="45.75" thickBot="1">
       <c r="A1" s="2" t="str">
-        <f>'N2-base'!A2</f>
+        <f>'N2-base'!B3</f>
         <v>Laser</v>
       </c>
       <c r="B1" s="5">
-        <f>'N2-base'!C2</f>
+        <f>'N2-base'!D3</f>
         <v>0</v>
       </c>
       <c r="C1" s="5">
-        <f>'N2-base'!D2</f>
+        <f>'N2-base'!E3</f>
         <v>0</v>
       </c>
       <c r="D1" s="5">
-        <f>'N2-base'!E2</f>
+        <f>'N2-base'!F3</f>
         <v>0</v>
       </c>
       <c r="E1" s="5">
-        <f>'N2-base'!G2</f>
+        <f>'N2-base'!H3</f>
         <v>0</v>
       </c>
       <c r="F1" s="5" t="str">
-        <f>'N2-base'!H2</f>
-        <v>Time pulse send</v>
+        <f>'N2-base'!I3</f>
+        <v>Time pulse is sent</v>
       </c>
       <c r="G1" s="5">
-        <f>'N2-base'!J2</f>
+        <f>'N2-base'!K3</f>
         <v>0</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f>'N2-base'!K2</f>
+        <f>'N2-base'!L3</f>
         <v>Reflected Laser pulses (via Earth)</v>
       </c>
       <c r="I1" s="5">
-        <f>'N2-base'!L2</f>
+        <f>'N2-base'!M3</f>
         <v>0</v>
       </c>
       <c r="J1" s="5">
-        <f>'N2-base'!M2</f>
+        <f>'N2-base'!N3</f>
         <v>0</v>
       </c>
       <c r="K1" s="5">
-        <f>'N2-base'!N2</f>
+        <f>'N2-base'!O3</f>
         <v>0</v>
       </c>
       <c r="L1" s="5">
-        <f>'N2-base'!O2</f>
+        <f>'N2-base'!P3</f>
         <v>0</v>
       </c>
       <c r="M1" s="5" t="e">
@@ -2792,69 +2939,69 @@
         <v>#REF!</v>
       </c>
       <c r="N1" s="5">
-        <f>'N2-base'!R2</f>
+        <f>'N2-base'!S3</f>
         <v>0</v>
       </c>
       <c r="O1" s="5">
-        <f>'N2-base'!S2</f>
+        <f>'N2-base'!T3</f>
         <v>0</v>
       </c>
       <c r="P1" s="5">
-        <f>'N2-base'!T2</f>
+        <f>'N2-base'!U3</f>
         <v>0</v>
       </c>
       <c r="Q1" s="5">
-        <f>'N2-base'!U2</f>
+        <f>'N2-base'!V3</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="str">
-        <f>'N2-base'!A4</f>
+        <f>'N2-base'!B5</f>
         <v>Nadir Pointing</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>'N2-base'!C4</f>
+        <f>'N2-base'!D5</f>
         <v>Pointing Mechanism</v>
       </c>
       <c r="C2" s="5">
-        <f>'N2-base'!D4</f>
+        <f>'N2-base'!E5</f>
         <v>0</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f>'N2-base'!E4</f>
+        <f>'N2-base'!F5</f>
         <v>Pointing angle</v>
       </c>
       <c r="E2" s="5">
-        <f>'N2-base'!G4</f>
+        <f>'N2-base'!H5</f>
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <f>'N2-base'!H4</f>
+        <f>'N2-base'!I5</f>
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <f>'N2-base'!J4</f>
+        <f>'N2-base'!K5</f>
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <f>'N2-base'!K4</f>
+        <f>'N2-base'!L5</f>
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <f>'N2-base'!L4</f>
+        <f>'N2-base'!M5</f>
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <f>'N2-base'!M4</f>
+        <f>'N2-base'!N5</f>
         <v>0</v>
       </c>
       <c r="K2" s="5">
-        <f>'N2-base'!N4</f>
+        <f>'N2-base'!O5</f>
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <f>'N2-base'!O4</f>
+        <f>'N2-base'!P5</f>
         <v>0</v>
       </c>
       <c r="M2" s="5" t="e">
@@ -2862,69 +3009,69 @@
         <v>#REF!</v>
       </c>
       <c r="N2" s="5">
-        <f>'N2-base'!R4</f>
+        <f>'N2-base'!S5</f>
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <f>'N2-base'!S4</f>
+        <f>'N2-base'!T5</f>
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <f>'N2-base'!T4</f>
+        <f>'N2-base'!U5</f>
         <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <f>'N2-base'!U4</f>
+        <f>'N2-base'!V5</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="str">
-        <f>'N2-base'!A5</f>
+        <f>'N2-base'!B6</f>
         <v>Nadir Pointing</v>
       </c>
       <c r="B3" s="6">
-        <f>'N2-base'!C5</f>
+        <f>'N2-base'!D6</f>
         <v>0</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>'N2-base'!D5</f>
+        <f>'N2-base'!E6</f>
         <v>Attitude Control</v>
       </c>
       <c r="D3" s="5">
-        <f>'N2-base'!E5</f>
+        <f>'N2-base'!F6</f>
         <v>0</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f>'N2-base'!G5</f>
+        <f>'N2-base'!H6</f>
         <v>Sun pointing</v>
       </c>
       <c r="F3" s="5">
-        <f>'N2-base'!H5</f>
+        <f>'N2-base'!I6</f>
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <f>'N2-base'!J5</f>
+        <f>'N2-base'!K6</f>
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <f>'N2-base'!K5</f>
+        <f>'N2-base'!L6</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f>'N2-base'!L5</f>
+        <f>'N2-base'!M6</f>
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>'N2-base'!M5</f>
+        <f>'N2-base'!N6</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f>'N2-base'!N5</f>
+        <f>'N2-base'!O6</f>
         <v>0</v>
       </c>
       <c r="L3" s="5">
-        <f>'N2-base'!O5</f>
+        <f>'N2-base'!P6</f>
         <v>0</v>
       </c>
       <c r="M3" s="5" t="e">
@@ -2932,69 +3079,69 @@
         <v>#REF!</v>
       </c>
       <c r="N3" s="5">
-        <f>'N2-base'!R5</f>
+        <f>'N2-base'!S6</f>
         <v>0</v>
       </c>
       <c r="O3" s="5">
-        <f>'N2-base'!S5</f>
+        <f>'N2-base'!T6</f>
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <f>'N2-base'!T5</f>
+        <f>'N2-base'!U6</f>
         <v>0</v>
       </c>
       <c r="Q3" s="5">
-        <f>'N2-base'!U5</f>
+        <f>'N2-base'!V6</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A4" s="6" t="str">
-        <f>'N2-base'!A6</f>
+        <f>'N2-base'!B7</f>
         <v>Give go if nadir pointing</v>
       </c>
       <c r="B4" s="6" t="str">
-        <f>'N2-base'!C6</f>
+        <f>'N2-base'!D7</f>
         <v>Pointing error</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f>'N2-base'!D6</f>
+        <f>'N2-base'!E7</f>
         <v>Attitude error</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>'N2-base'!E6</f>
+        <f>'N2-base'!F7</f>
         <v>Attitude Determination</v>
       </c>
       <c r="E4" s="5">
-        <f>'N2-base'!G6</f>
+        <f>'N2-base'!H7</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f>'N2-base'!H6</f>
+        <f>'N2-base'!I7</f>
         <v>0</v>
       </c>
       <c r="G4" s="5" t="str">
-        <f>'N2-base'!H9</f>
+        <f>'N2-base'!I10</f>
         <v>Data Storage</v>
       </c>
       <c r="H4" s="5">
-        <f>'N2-base'!K6</f>
+        <f>'N2-base'!L7</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f>'N2-base'!L6</f>
+        <f>'N2-base'!M7</f>
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f>'N2-base'!M6</f>
+        <f>'N2-base'!N7</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f>'N2-base'!N6</f>
+        <f>'N2-base'!O7</f>
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <f>'N2-base'!O6</f>
+        <f>'N2-base'!P7</f>
         <v>0</v>
       </c>
       <c r="M4" s="5" t="e">
@@ -3002,69 +3149,69 @@
         <v>#REF!</v>
       </c>
       <c r="N4" s="5">
-        <f>'N2-base'!R6</f>
+        <f>'N2-base'!S7</f>
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <f>'N2-base'!S6</f>
+        <f>'N2-base'!T7</f>
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f>'N2-base'!T6</f>
+        <f>'N2-base'!U7</f>
         <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <f>'N2-base'!U6</f>
+        <f>'N2-base'!V7</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="6" t="str">
-        <f>'N2-base'!A8</f>
+        <f>'N2-base'!B9</f>
         <v>Provide power</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f>'N2-base'!C8</f>
+        <f>'N2-base'!D9</f>
         <v>Provide power</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f>'N2-base'!D8</f>
+        <f>'N2-base'!E9</f>
         <v>Provide power</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f>'N2-base'!E8</f>
+        <f>'N2-base'!F9</f>
         <v>Provide power</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>'N2-base'!G8</f>
+        <f>'N2-base'!H9</f>
         <v>EPS</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>'N2-base'!H8</f>
+        <f>'N2-base'!I9</f>
         <v>Provide power</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f>'N2-base'!J8</f>
+        <f>'N2-base'!K9</f>
         <v>Provide power</v>
       </c>
       <c r="H5" s="5">
-        <f>'N2-base'!K8</f>
+        <f>'N2-base'!L9</f>
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f>'N2-base'!L8</f>
+        <f>'N2-base'!M9</f>
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f>'N2-base'!M8</f>
+        <f>'N2-base'!N9</f>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f>'N2-base'!N8</f>
+        <f>'N2-base'!O9</f>
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <f>'N2-base'!O8</f>
+        <f>'N2-base'!P9</f>
         <v>0</v>
       </c>
       <c r="M5" s="5" t="e">
@@ -3072,41 +3219,41 @@
         <v>#REF!</v>
       </c>
       <c r="N5" s="5">
-        <f>'N2-base'!R8</f>
+        <f>'N2-base'!S9</f>
         <v>0</v>
       </c>
       <c r="O5" s="5">
-        <f>'N2-base'!S8</f>
+        <f>'N2-base'!T9</f>
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <f>'N2-base'!T8</f>
+        <f>'N2-base'!U9</f>
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <f>'N2-base'!U8</f>
+        <f>'N2-base'!V9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A6" s="6">
-        <f>'N2-base'!A9</f>
+        <f>'N2-base'!B10</f>
         <v>0</v>
       </c>
       <c r="B6" s="6">
-        <f>'N2-base'!C9</f>
+        <f>'N2-base'!D10</f>
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <f>'N2-base'!D9</f>
+        <f>'N2-base'!E10</f>
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <f>'N2-base'!E9</f>
+        <f>'N2-base'!F10</f>
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <f>'N2-base'!G9</f>
+        <f>'N2-base'!H10</f>
         <v>0</v>
       </c>
       <c r="F6" s="2" t="e">
@@ -3114,27 +3261,27 @@
         <v>#REF!</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f>'N2-base'!J9</f>
+        <f>'N2-base'!K10</f>
         <v>Transmittable data</v>
       </c>
       <c r="H6" s="5">
-        <f>'N2-base'!K9</f>
+        <f>'N2-base'!L10</f>
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f>'N2-base'!L9</f>
+        <f>'N2-base'!M10</f>
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <f>'N2-base'!M9</f>
+        <f>'N2-base'!N10</f>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f>'N2-base'!N9</f>
+        <f>'N2-base'!O10</f>
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <f>'N2-base'!O9</f>
+        <f>'N2-base'!P10</f>
         <v>0</v>
       </c>
       <c r="M6" s="5" t="e">
@@ -3142,41 +3289,41 @@
         <v>#REF!</v>
       </c>
       <c r="N6" s="5">
-        <f>'N2-base'!R9</f>
+        <f>'N2-base'!S10</f>
         <v>0</v>
       </c>
       <c r="O6" s="5">
-        <f>'N2-base'!S9</f>
+        <f>'N2-base'!T10</f>
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <f>'N2-base'!T9</f>
+        <f>'N2-base'!U10</f>
         <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <f>'N2-base'!U9</f>
+        <f>'N2-base'!V10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A7" s="6">
-        <f>'N2-base'!A10</f>
+        <f>'N2-base'!B11</f>
         <v>0</v>
       </c>
       <c r="B7" s="6">
-        <f>'N2-base'!C10</f>
+        <f>'N2-base'!D11</f>
         <v>0</v>
       </c>
       <c r="C7" s="6">
-        <f>'N2-base'!D10</f>
+        <f>'N2-base'!E11</f>
         <v>0</v>
       </c>
       <c r="D7" s="6">
-        <f>'N2-base'!E10</f>
+        <f>'N2-base'!F11</f>
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <f>'N2-base'!G10</f>
+        <f>'N2-base'!H11</f>
         <v>0</v>
       </c>
       <c r="F7" s="6" t="e">
@@ -3184,27 +3331,27 @@
         <v>#REF!</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>'N2-base'!J10</f>
+        <f>'N2-base'!K11</f>
         <v>Communication</v>
       </c>
       <c r="H7" s="5">
-        <f>'N2-base'!K10</f>
+        <f>'N2-base'!L11</f>
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f>'N2-base'!L10</f>
+        <f>'N2-base'!M11</f>
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <f>'N2-base'!M10</f>
+        <f>'N2-base'!N11</f>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f>'N2-base'!N10</f>
+        <f>'N2-base'!O11</f>
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <f>'N2-base'!O10</f>
+        <f>'N2-base'!P11</f>
         <v>0</v>
       </c>
       <c r="M7" s="5" t="e">
@@ -3212,69 +3359,69 @@
         <v>#REF!</v>
       </c>
       <c r="N7" s="5" t="str">
-        <f>'N2-base'!R10</f>
+        <f>'N2-base'!S11</f>
         <v>Ground target pointing data</v>
       </c>
       <c r="O7" s="5" t="str">
-        <f>'N2-base'!S10</f>
+        <f>'N2-base'!T11</f>
         <v>Measurement data</v>
       </c>
       <c r="P7" s="5">
-        <f>'N2-base'!T10</f>
+        <f>'N2-base'!U11</f>
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <f>'N2-base'!U10</f>
+        <f>'N2-base'!V11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A8" s="6">
-        <f>'N2-base'!A11</f>
+        <f>'N2-base'!B12</f>
         <v>0</v>
       </c>
       <c r="B8" s="6">
-        <f>'N2-base'!C11</f>
+        <f>'N2-base'!D12</f>
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <f>'N2-base'!D11</f>
+        <f>'N2-base'!E12</f>
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <f>'N2-base'!E11</f>
+        <f>'N2-base'!F12</f>
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <f>'N2-base'!G11</f>
+        <f>'N2-base'!H12</f>
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f>'N2-base'!H11</f>
+        <f>'N2-base'!I12</f>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f>'N2-base'!J11</f>
+        <f>'N2-base'!K12</f>
         <v>0</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>'N2-base'!K11</f>
+        <f>'N2-base'!L12</f>
         <v>Photon counter</v>
       </c>
       <c r="I8" s="5">
-        <f>'N2-base'!L11</f>
+        <f>'N2-base'!M12</f>
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f>'N2-base'!M11</f>
+        <f>'N2-base'!N12</f>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f>'N2-base'!N11</f>
+        <f>'N2-base'!O12</f>
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <f>'N2-base'!O11</f>
+        <f>'N2-base'!P12</f>
         <v>0</v>
       </c>
       <c r="M8" s="5" t="e">
@@ -3282,69 +3429,69 @@
         <v>#REF!</v>
       </c>
       <c r="N8" s="5">
-        <f>'N2-base'!R11</f>
+        <f>'N2-base'!S12</f>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f>'N2-base'!S11</f>
+        <f>'N2-base'!T12</f>
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <f>'N2-base'!T11</f>
+        <f>'N2-base'!U12</f>
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <f>'N2-base'!U11</f>
+        <f>'N2-base'!V12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="34.5" thickBot="1">
       <c r="A9" s="6">
-        <f>'N2-base'!A12</f>
+        <f>'N2-base'!B13</f>
         <v>0</v>
       </c>
       <c r="B9" s="6">
-        <f>'N2-base'!C12</f>
+        <f>'N2-base'!D13</f>
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <f>'N2-base'!D12</f>
+        <f>'N2-base'!E13</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f>'N2-base'!E12</f>
+        <f>'N2-base'!F13</f>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f>'N2-base'!G12</f>
+        <f>'N2-base'!H13</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>'N2-base'!H12</f>
+        <f>'N2-base'!I13</f>
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <f>'N2-base'!J12</f>
+        <f>'N2-base'!K13</f>
         <v>0</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>'N2-base'!K12</f>
+        <f>'N2-base'!L13</f>
         <v>Ground Target Pointing</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f>'N2-base'!L12</f>
+        <f>'N2-base'!M13</f>
         <v>Pointing Mechanism</v>
       </c>
       <c r="J9" s="5">
-        <f>'N2-base'!M12</f>
+        <f>'N2-base'!N13</f>
         <v>0</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f>'N2-base'!N12</f>
+        <f>'N2-base'!O13</f>
         <v>Pointing angle</v>
       </c>
       <c r="L9" s="5">
-        <f>'N2-base'!O12</f>
+        <f>'N2-base'!P13</f>
         <v>0</v>
       </c>
       <c r="M9" s="5" t="e">
@@ -3352,69 +3499,69 @@
         <v>#REF!</v>
       </c>
       <c r="N9" s="5">
-        <f>'N2-base'!R12</f>
+        <f>'N2-base'!S13</f>
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <f>'N2-base'!S12</f>
+        <f>'N2-base'!T13</f>
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <f>'N2-base'!T12</f>
+        <f>'N2-base'!U13</f>
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <f>'N2-base'!U12</f>
+        <f>'N2-base'!V13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A10" s="6">
-        <f>'N2-base'!A13</f>
+        <f>'N2-base'!B14</f>
         <v>0</v>
       </c>
       <c r="B10" s="6">
-        <f>'N2-base'!C13</f>
+        <f>'N2-base'!D14</f>
         <v>0</v>
       </c>
       <c r="C10" s="6">
-        <f>'N2-base'!D13</f>
+        <f>'N2-base'!E14</f>
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <f>'N2-base'!E13</f>
+        <f>'N2-base'!F14</f>
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <f>'N2-base'!G13</f>
+        <f>'N2-base'!H14</f>
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f>'N2-base'!H13</f>
+        <f>'N2-base'!I14</f>
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <f>'N2-base'!J13</f>
+        <f>'N2-base'!K14</f>
         <v>0</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>'N2-base'!K13</f>
+        <f>'N2-base'!L14</f>
         <v>Ground Target Pointing</v>
       </c>
       <c r="I10" s="5">
-        <f>'N2-base'!L13</f>
+        <f>'N2-base'!M14</f>
         <v>0</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>'N2-base'!M13</f>
+        <f>'N2-base'!N14</f>
         <v>Attitude Control</v>
       </c>
       <c r="K10" s="5">
-        <f>'N2-base'!N13</f>
+        <f>'N2-base'!O14</f>
         <v>0</v>
       </c>
       <c r="L10" s="5" t="str">
-        <f>'N2-base'!O13</f>
+        <f>'N2-base'!P14</f>
         <v>Sun pointing</v>
       </c>
       <c r="M10" s="5" t="e">
@@ -3422,69 +3569,69 @@
         <v>#REF!</v>
       </c>
       <c r="N10" s="5">
-        <f>'N2-base'!R13</f>
+        <f>'N2-base'!S14</f>
         <v>0</v>
       </c>
       <c r="O10" s="5">
-        <f>'N2-base'!S13</f>
+        <f>'N2-base'!T14</f>
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <f>'N2-base'!T13</f>
+        <f>'N2-base'!U14</f>
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <f>'N2-base'!U13</f>
+        <f>'N2-base'!V14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A11" s="6">
-        <f>'N2-base'!A14</f>
+        <f>'N2-base'!B15</f>
         <v>0</v>
       </c>
       <c r="B11" s="6">
-        <f>'N2-base'!C14</f>
+        <f>'N2-base'!D15</f>
         <v>0</v>
       </c>
       <c r="C11" s="6">
-        <f>'N2-base'!D14</f>
+        <f>'N2-base'!E15</f>
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f>'N2-base'!E14</f>
+        <f>'N2-base'!F15</f>
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <f>'N2-base'!G14</f>
+        <f>'N2-base'!H15</f>
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f>'N2-base'!H14</f>
+        <f>'N2-base'!I15</f>
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <f>'N2-base'!J14</f>
+        <f>'N2-base'!K15</f>
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <f>'N2-base'!K14</f>
+        <f>'N2-base'!L15</f>
         <v>0</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f>'N2-base'!L14</f>
+        <f>'N2-base'!M15</f>
         <v>Pointing error</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f>'N2-base'!M14</f>
+        <f>'N2-base'!N15</f>
         <v>Attitude Error</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f>'N2-base'!N14</f>
+        <f>'N2-base'!O15</f>
         <v>Attitude Determination</v>
       </c>
       <c r="L11" s="5">
-        <f>'N2-base'!O14</f>
+        <f>'N2-base'!P15</f>
         <v>0</v>
       </c>
       <c r="M11" s="5" t="e">
@@ -3492,69 +3639,69 @@
         <v>#REF!</v>
       </c>
       <c r="N11" s="5">
-        <f>'N2-base'!R14</f>
+        <f>'N2-base'!S15</f>
         <v>0</v>
       </c>
       <c r="O11" s="5">
-        <f>'N2-base'!S14</f>
+        <f>'N2-base'!T15</f>
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <f>'N2-base'!T14</f>
+        <f>'N2-base'!U15</f>
         <v>0</v>
       </c>
       <c r="Q11" s="5">
-        <f>'N2-base'!U14</f>
+        <f>'N2-base'!V15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A12" s="6">
-        <f>'N2-base'!A15</f>
+        <f>'N2-base'!B16</f>
         <v>0</v>
       </c>
       <c r="B12" s="6">
-        <f>'N2-base'!C15</f>
+        <f>'N2-base'!D16</f>
         <v>0</v>
       </c>
       <c r="C12" s="6">
-        <f>'N2-base'!D15</f>
+        <f>'N2-base'!E16</f>
         <v>0</v>
       </c>
       <c r="D12" s="6">
-        <f>'N2-base'!E15</f>
+        <f>'N2-base'!F16</f>
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <f>'N2-base'!G15</f>
+        <f>'N2-base'!H16</f>
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <f>'N2-base'!H15</f>
+        <f>'N2-base'!I16</f>
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <f>'N2-base'!J15</f>
+        <f>'N2-base'!K16</f>
         <v>0</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f>'N2-base'!K15</f>
+        <f>'N2-base'!L16</f>
         <v>Provide power</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f>'N2-base'!L15</f>
+        <f>'N2-base'!M16</f>
         <v>Provide power</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f>'N2-base'!M15</f>
+        <f>'N2-base'!N16</f>
         <v>Provide power</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f>'N2-base'!N15</f>
+        <f>'N2-base'!O16</f>
         <v>Provide power</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f>'N2-base'!O15</f>
+        <f>'N2-base'!P16</f>
         <v>EPS</v>
       </c>
       <c r="M12" s="5" t="e">
@@ -3562,19 +3709,19 @@
         <v>#REF!</v>
       </c>
       <c r="N12" s="5" t="str">
-        <f>'N2-base'!R15</f>
+        <f>'N2-base'!S16</f>
         <v>Provide power</v>
       </c>
       <c r="O12" s="5">
-        <f>'N2-base'!S15</f>
+        <f>'N2-base'!T16</f>
         <v>0</v>
       </c>
       <c r="P12" s="5">
-        <f>'N2-base'!T15</f>
+        <f>'N2-base'!U16</f>
         <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <f>'N2-base'!U15</f>
+        <f>'N2-base'!V16</f>
         <v>0</v>
       </c>
     </row>
@@ -3650,51 +3797,51 @@
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A14" s="6">
-        <f>'N2-base'!A18</f>
+        <f>'N2-base'!B19</f>
         <v>0</v>
       </c>
       <c r="B14" s="6">
-        <f>'N2-base'!C18</f>
+        <f>'N2-base'!D19</f>
         <v>0</v>
       </c>
       <c r="C14" s="6">
-        <f>'N2-base'!D18</f>
+        <f>'N2-base'!E19</f>
         <v>0</v>
       </c>
       <c r="D14" s="6">
-        <f>'N2-base'!E18</f>
+        <f>'N2-base'!F19</f>
         <v>0</v>
       </c>
       <c r="E14" s="6">
-        <f>'N2-base'!G18</f>
+        <f>'N2-base'!H19</f>
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <f>'N2-base'!H18</f>
+        <f>'N2-base'!I19</f>
         <v>0</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>'N2-base'!J18</f>
+        <f>'N2-base'!K19</f>
         <v>-Measurement data*                                                                          -Relative position data</v>
       </c>
       <c r="H14" s="5">
-        <f>'N2-base'!K18</f>
+        <f>'N2-base'!L19</f>
         <v>0</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f>'N2-base'!L18</f>
+        <f>'N2-base'!M19</f>
         <v>Ground target pointing data</v>
       </c>
       <c r="J14" s="5">
-        <f>'N2-base'!M18</f>
+        <f>'N2-base'!N19</f>
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f>'N2-base'!N18</f>
+        <f>'N2-base'!O19</f>
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f>'N2-base'!O18</f>
+        <f>'N2-base'!P19</f>
         <v>0</v>
       </c>
       <c r="M14" s="5" t="e">
@@ -3702,69 +3849,69 @@
         <v>#REF!</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f>'N2-base'!R18</f>
+        <f>'N2-base'!S19</f>
         <v>Communication</v>
       </c>
       <c r="O14" s="5" t="str">
-        <f>'N2-base'!S18</f>
+        <f>'N2-base'!T19</f>
         <v>Measurement data*</v>
       </c>
       <c r="P14" s="5">
-        <f>'N2-base'!T18</f>
+        <f>'N2-base'!U19</f>
         <v>0</v>
       </c>
       <c r="Q14" s="5">
-        <f>'N2-base'!U18</f>
+        <f>'N2-base'!V19</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="A15" s="6">
-        <f>'N2-base'!A19</f>
+        <f>'N2-base'!B20</f>
         <v>0</v>
       </c>
       <c r="B15" s="5">
-        <f>'N2-base'!C19</f>
+        <f>'N2-base'!D20</f>
         <v>0</v>
       </c>
       <c r="C15" s="6">
-        <f>'N2-base'!D19</f>
+        <f>'N2-base'!E20</f>
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <f>'N2-base'!E19</f>
+        <f>'N2-base'!F20</f>
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <f>'N2-base'!G19</f>
+        <f>'N2-base'!H20</f>
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <f>'N2-base'!H19</f>
+        <f>'N2-base'!I20</f>
         <v>0</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>'N2-base'!J19</f>
+        <f>'N2-base'!K20</f>
         <v>Commands</v>
       </c>
       <c r="H15" s="5">
-        <f>'N2-base'!K19</f>
+        <f>'N2-base'!L20</f>
         <v>0</v>
       </c>
       <c r="I15" s="5">
-        <f>'N2-base'!L19</f>
+        <f>'N2-base'!M20</f>
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <f>'N2-base'!M19</f>
+        <f>'N2-base'!N20</f>
         <v>0</v>
       </c>
       <c r="K15" s="5">
-        <f>'N2-base'!N19</f>
+        <f>'N2-base'!O20</f>
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <f>'N2-base'!O19</f>
+        <f>'N2-base'!P20</f>
         <v>0</v>
       </c>
       <c r="M15" s="5" t="e">
@@ -3772,69 +3919,69 @@
         <v>#REF!</v>
       </c>
       <c r="N15" s="5" t="str">
-        <f>'N2-base'!R19</f>
+        <f>'N2-base'!S20</f>
         <v>Commands</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f>'N2-base'!S19</f>
+        <f>'N2-base'!T20</f>
         <v>Ground Stations</v>
       </c>
       <c r="P15" s="5" t="str">
-        <f>'N2-base'!T19</f>
+        <f>'N2-base'!U20</f>
         <v>Data package</v>
       </c>
       <c r="Q15" s="5">
-        <f>'N2-base'!U19</f>
+        <f>'N2-base'!V20</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="23.25" thickBot="1">
       <c r="A16" s="6">
-        <f>'N2-base'!A20</f>
+        <f>'N2-base'!B21</f>
         <v>0</v>
       </c>
       <c r="B16" s="5">
-        <f>'N2-base'!C20</f>
+        <f>'N2-base'!D21</f>
         <v>0</v>
       </c>
       <c r="C16" s="6">
-        <f>'N2-base'!D20</f>
+        <f>'N2-base'!E21</f>
         <v>0</v>
       </c>
       <c r="D16" s="6">
-        <f>'N2-base'!E20</f>
+        <f>'N2-base'!F21</f>
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <f>'N2-base'!G20</f>
+        <f>'N2-base'!H21</f>
         <v>0</v>
       </c>
       <c r="F16" s="6">
-        <f>'N2-base'!H20</f>
+        <f>'N2-base'!I21</f>
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <f>'N2-base'!J20</f>
+        <f>'N2-base'!K21</f>
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f>'N2-base'!K20</f>
+        <f>'N2-base'!L21</f>
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <f>'N2-base'!L20</f>
+        <f>'N2-base'!M21</f>
         <v>0</v>
       </c>
       <c r="J16" s="5">
-        <f>'N2-base'!M20</f>
+        <f>'N2-base'!N21</f>
         <v>0</v>
       </c>
       <c r="K16" s="5">
-        <f>'N2-base'!N20</f>
+        <f>'N2-base'!O21</f>
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <f>'N2-base'!O20</f>
+        <f>'N2-base'!P21</f>
         <v>0</v>
       </c>
       <c r="M16" s="5" t="e">
@@ -3842,69 +3989,69 @@
         <v>#REF!</v>
       </c>
       <c r="N16" s="5">
-        <f>'N2-base'!R20</f>
+        <f>'N2-base'!S21</f>
         <v>0</v>
       </c>
       <c r="O16" s="5" t="str">
-        <f>'N2-base'!S20</f>
+        <f>'N2-base'!T21</f>
         <v>Commands</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f>'N2-base'!T20</f>
+        <f>'N2-base'!U21</f>
         <v>Mission Control</v>
       </c>
       <c r="Q16" s="5" t="str">
-        <f>'N2-base'!U20</f>
+        <f>'N2-base'!V21</f>
         <v>Provide Data</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="34.5" thickBot="1">
       <c r="A17" s="6">
-        <f>'N2-base'!A21</f>
+        <f>'N2-base'!B22</f>
         <v>0</v>
       </c>
       <c r="B17" s="5">
-        <f>'N2-base'!C21</f>
+        <f>'N2-base'!D22</f>
         <v>0</v>
       </c>
       <c r="C17" s="6">
-        <f>'N2-base'!D21</f>
+        <f>'N2-base'!E22</f>
         <v>0</v>
       </c>
       <c r="D17" s="6">
-        <f>'N2-base'!E21</f>
+        <f>'N2-base'!F22</f>
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <f>'N2-base'!G21</f>
+        <f>'N2-base'!H22</f>
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <f>'N2-base'!H21</f>
+        <f>'N2-base'!I22</f>
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <f>'N2-base'!J21</f>
+        <f>'N2-base'!K22</f>
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f>'N2-base'!K21</f>
+        <f>'N2-base'!L22</f>
         <v>0</v>
       </c>
       <c r="I17" s="5">
-        <f>'N2-base'!L21</f>
+        <f>'N2-base'!M22</f>
         <v>0</v>
       </c>
       <c r="J17" s="5">
-        <f>'N2-base'!M21</f>
+        <f>'N2-base'!N22</f>
         <v>0</v>
       </c>
       <c r="K17" s="5">
-        <f>'N2-base'!N21</f>
+        <f>'N2-base'!O22</f>
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <f>'N2-base'!O21</f>
+        <f>'N2-base'!P22</f>
         <v>0</v>
       </c>
       <c r="M17" s="5" t="e">
@@ -3912,19 +4059,19 @@
         <v>#REF!</v>
       </c>
       <c r="N17" s="5">
-        <f>'N2-base'!R21</f>
+        <f>'N2-base'!S22</f>
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <f>'N2-base'!S21</f>
+        <f>'N2-base'!T22</f>
         <v>0</v>
       </c>
       <c r="P17" s="5" t="str">
-        <f>'N2-base'!T21</f>
+        <f>'N2-base'!U22</f>
         <v>Request Data packages</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <f>'N2-base'!U21</f>
+        <f>'N2-base'!V22</f>
         <v>Researchers</v>
       </c>
     </row>
